--- a/rolar_opcoes_CSAN3_CSANG100_CSANH250.xlsx
+++ b/rolar_opcoes_CSAN3_CSANG100_CSANH250.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>% sobre CSANG100</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -499,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.99</v>
+        <v>24.94</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="F3" t="n">
-        <v>1.28</v>
+        <v>0.89</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -545,6 +553,9 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -561,13 +572,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
         <v>0.2600000000000016</v>
@@ -576,10 +587,13 @@
         <v>1.050929668552958</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3799999999999986</v>
+        <v>0.6500000000000015</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.535974130961999</v>
+        <v>2.627324171382383</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/rolar_opcoes_CSAN3_CSANG100_CSANH250.xlsx
+++ b/rolar_opcoes_CSAN3_CSANG100_CSANH250.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-07-06" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.94</v>
+        <v>24.39</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.03</v>
+        <v>0.44</v>
       </c>
       <c r="F3" t="n">
-        <v>0.89</v>
+        <v>0.31</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -572,28 +572,28 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>1.42</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.2600000000000016</v>
       </c>
       <c r="H4" t="n">
-        <v>1.050929668552958</v>
+        <v>1.05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6500000000000015</v>
+        <v>0.7000000000000015</v>
       </c>
       <c r="J4" t="n">
-        <v>2.627324171382383</v>
+        <v>2.83</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
